--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bootcampKatalon\session 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bootcampKatalon\session 1\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78D7261-7712-4E72-9BA6-A4311496B104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E79A3D-96F3-43CC-9519-A93A75FA87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Preconditions</t>
   </si>
   <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -79,13 +76,230 @@
   </si>
   <si>
     <t>TO DO</t>
+  </si>
+  <si>
+    <t>Step to Reproduce</t>
+  </si>
+  <si>
+    <t>TS_KA_001</t>
+  </si>
+  <si>
+    <t>TC_KA_001</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TC_KA_002</t>
+  </si>
+  <si>
+    <t>TC_KA_003</t>
+  </si>
+  <si>
+    <t>TC_KA_004</t>
+  </si>
+  <si>
+    <t>The user is successfully registered</t>
+  </si>
+  <si>
+    <t>The user is failed registered because empty form</t>
+  </si>
+  <si>
+    <t>The user is failed registered because invalid format email</t>
+  </si>
+  <si>
+    <t>The user is failed registered because email already registered</t>
+  </si>
+  <si>
+    <t>TS_KA_002</t>
+  </si>
+  <si>
+    <t>TC_KA_005</t>
+  </si>
+  <si>
+    <t>TC_KA_006</t>
+  </si>
+  <si>
+    <t>TC_KA_007</t>
+  </si>
+  <si>
+    <t>TC_KA_008</t>
+  </si>
+  <si>
+    <t>The user is successfully login</t>
+  </si>
+  <si>
+    <t>The user is failed login because empty form</t>
+  </si>
+  <si>
+    <t>The user is failed login because email not registered</t>
+  </si>
+  <si>
+    <t>The user is failed login because invalid password</t>
+  </si>
+  <si>
+    <t>TS_KA_003</t>
+  </si>
+  <si>
+    <t>TC_KA_009</t>
+  </si>
+  <si>
+    <t>TC_KA_010</t>
+  </si>
+  <si>
+    <t>TC_KA_011</t>
+  </si>
+  <si>
+    <t>TC_KA_012</t>
+  </si>
+  <si>
+    <t>TC_KA_013</t>
+  </si>
+  <si>
+    <t>TC_KA_014</t>
+  </si>
+  <si>
+    <t>TC_KA_015</t>
+  </si>
+  <si>
+    <t>TC_KA_016</t>
+  </si>
+  <si>
+    <t>TC_KA_017</t>
+  </si>
+  <si>
+    <t>TC_KA_018</t>
+  </si>
+  <si>
+    <t>TC_KA_019</t>
+  </si>
+  <si>
+    <t>TC_KA_020</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>The user is successfully add sale</t>
+  </si>
+  <si>
+    <t>The user is successfully search invoice</t>
+  </si>
+  <si>
+    <t>The user is successfully search pelanggan</t>
+  </si>
+  <si>
+    <t>The user is successfully set date range</t>
+  </si>
+  <si>
+    <t>The user is successfully delete product</t>
+  </si>
+  <si>
+    <t>The user is successfully add product</t>
+  </si>
+  <si>
+    <t>The user is successfully search product with name</t>
+  </si>
+  <si>
+    <t>The user is successfully search product with code</t>
+  </si>
+  <si>
+    <t>The user is failed add sales because empty product</t>
+  </si>
+  <si>
+    <t>The user is failed add sales because less payment</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Anisa Nur Sekar Arum</t>
+  </si>
+  <si>
+    <t>- Connect to the internet
+- Valid URL data</t>
+  </si>
+  <si>
+    <t>Input email //input[@id='email']</t>
+  </si>
+  <si>
+    <t>Input password //input[@id='password']</t>
+  </si>
+  <si>
+    <t>tokokita</t>
+  </si>
+  <si>
+    <t>Input nama toko //input[@id='name']</t>
+  </si>
+  <si>
+    <t>tokokita12</t>
+  </si>
+  <si>
+    <t>adminlima.tokokita@yopmail.com</t>
+  </si>
+  <si>
+    <t>//input[@id='name'] filled</t>
+  </si>
+  <si>
+    <t>//input[@id='email'] filled</t>
+  </si>
+  <si>
+    <t>//input[@id='password'] filled</t>
+  </si>
+  <si>
+    <t>Click button daftar //button[@type='submit']</t>
+  </si>
+  <si>
+    <t>Success alert appears //li[@class='chakra-toast']//div[@class='chakra-alert__desc css-zycdy9'][normalize-space()='anda dapat menggunakan login sekarang']</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain "name" is not allowed to be empty"</t>
+  </si>
+  <si>
+    <t>TC_KA_021</t>
+  </si>
+  <si>
+    <t>The user is failed registered because empty nama toko</t>
+  </si>
+  <si>
+    <t>The user is failed registered because empty email</t>
+  </si>
+  <si>
+    <t>The user is failed registered because empty password</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain "email" is not allowed to be empty"</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain "password" is not allowed to be empty"</t>
+  </si>
+  <si>
+    <t>email.domain.com</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain "email" must be a valid email</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain Email sudah digunakan</t>
+  </si>
+  <si>
+    <t>admin.tokokita@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +311,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,55 +344,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -183,34 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -225,38 +382,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -291,6 +595,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -570,149 +884,1234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="17" max="17" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K7" s="7" t="s">
-        <v>17</v>
+      <c r="L2" s="16"/>
+      <c r="M2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <mergeCells count="68">
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="K2 K6:K7 K10 K13 K24:K37 K16 K20">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"IN PROGRESS"</formula>
+  <conditionalFormatting sqref="E2 E6:E7 E10 E13 E16 E20 E24:E37">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NEGATIVE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"POSITIVE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{775189AF-C8EA-4A7E-A6BD-1F0AAC0654A3}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K6:K7 K10 K13 K24:K37 K16 K20" xr:uid="{775189AF-C8EA-4A7E-A6BD-1F0AAC0654A3}">
       <formula1>"TO DO, PASSED, FAILED, IN PROGRESS"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E7 E10 E13 E16 E20 E24:E37" xr:uid="{745C7A0C-15E4-4266-BE2E-3EAC8A5DE826}">
+      <formula1>"POSITIVE, NEGATIVE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P6:P7 P10 P13 P24:P37 P16 P20" xr:uid="{5916E885-A65A-4696-9585-5FFE24F5F37E}">
+      <formula1>"YES, NO"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{BA112D11-68B8-42B3-BB8D-F1B116F83CE1}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{55DA12BA-6EBE-48C1-B72D-0CE095246DBC}"/>
+    <hyperlink ref="H14" r:id="rId3" xr:uid="{61BE1185-BC8F-4E40-A0B6-C30B473CC7A3}"/>
+    <hyperlink ref="H17" r:id="rId4" display="adminlima.tokokita@yopmail.com" xr:uid="{D1E7A63F-76BB-4F2A-9A8A-E91BD7A6DDA6}"/>
+    <hyperlink ref="H21" r:id="rId5" xr:uid="{CFB35B9F-9E23-4836-B8C0-ED70555DCE56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bootcampKatalon\session 1\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E79A3D-96F3-43CC-9519-A93A75FA87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD775ACC-032A-4B2B-9E6D-A28762BBCF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="100">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -293,6 +293,45 @@
   </si>
   <si>
     <t>admin.tokokita@yopmail.com</t>
+  </si>
+  <si>
+    <t>- Connect to the internet
+- Valid URL data
+- Email already registered</t>
+  </si>
+  <si>
+    <t>Click button login //button[@type='submit']</t>
+  </si>
+  <si>
+    <t>- Success login
+- Direct to dashbord page
+- {baseURL}/dashboard</t>
+  </si>
+  <si>
+    <t>- Connect to the internet
+- Valid URL data
+- Email not registered</t>
+  </si>
+  <si>
+    <t>blaxx980@email.com</t>
+  </si>
+  <si>
+    <t>Warning alert appears //div[@role='alert']//[@class='chakra-alert css-qwanz3'] contain "Kredensial yang Anda berikan salah"</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>The user is failed login because email is empty</t>
+  </si>
+  <si>
+    <t>The user is failed login because password is empty</t>
+  </si>
+  <si>
+    <t>TC_KA_022</t>
+  </si>
+  <si>
+    <t>TC_KA_023</t>
   </si>
 </sst>
 </file>
@@ -344,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -456,12 +495,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,85 +524,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -595,6 +732,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -885,10 +1042,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,1104 +1071,1543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
     </row>
     <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="15"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="15"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="6" t="s">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="6" t="s">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="13" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="15"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="13" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="15"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="6" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="15"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="15"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="6" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="6" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="15"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="15"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="15"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="6" t="s">
+      <c r="L20" s="26"/>
+      <c r="M20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="6" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="15"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="15"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="15"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="F24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="L24" s="24"/>
+      <c r="M24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="F27" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="13"/>
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="L27" s="13"/>
+      <c r="M27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="44"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="44"/>
+    </row>
+    <row r="35" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+    </row>
+    <row r="37" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C41" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C42" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C43" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C46" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P46" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C47" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
+  <mergeCells count="125">
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
     <mergeCell ref="P16:P19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="K20:K23"/>
@@ -2025,82 +2622,70 @@
     <mergeCell ref="M16:M19"/>
     <mergeCell ref="N16:N19"/>
     <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K2 K6:K7 K10 K13 K24:K37 K16 K20">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E2 E6:E7 E10 E13 E16 E20 E24 E35 E38:E47 E27:E28 E32">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"NEGATIVE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"POSITIVE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2 K6:K7 K10 K13 K16 K20 K24 K38:K47 K35 K27:K28 K32">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 E6:E7 E10 E13 E16 E20 E24:E37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"NEGATIVE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"POSITIVE"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K6:K7 K10 K13 K24:K37 K16 K20" xr:uid="{775189AF-C8EA-4A7E-A6BD-1F0AAC0654A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K6:K7 K10 K13 K20 K16 K24 K35 K38:K47 K27:K28 K30 K32" xr:uid="{775189AF-C8EA-4A7E-A6BD-1F0AAC0654A3}">
       <formula1>"TO DO, PASSED, FAILED, IN PROGRESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E7 E10 E13 E16 E20 E24:E37" xr:uid="{745C7A0C-15E4-4266-BE2E-3EAC8A5DE826}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E7 E10 E13 E16 E20 E24 E38:E47 E35 E27:E28 E30 E32" xr:uid="{745C7A0C-15E4-4266-BE2E-3EAC8A5DE826}">
       <formula1>"POSITIVE, NEGATIVE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P6:P7 P10 P13 P24:P37 P16 P20" xr:uid="{5916E885-A65A-4696-9585-5FFE24F5F37E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P6:P7 P10 P13 P20 P16 P24 P35 P38:P47 P27:P28 P30 P32" xr:uid="{5916E885-A65A-4696-9585-5FFE24F5F37E}">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2110,8 +2695,12 @@
     <hyperlink ref="H14" r:id="rId3" xr:uid="{61BE1185-BC8F-4E40-A0B6-C30B473CC7A3}"/>
     <hyperlink ref="H17" r:id="rId4" display="adminlima.tokokita@yopmail.com" xr:uid="{D1E7A63F-76BB-4F2A-9A8A-E91BD7A6DDA6}"/>
     <hyperlink ref="H21" r:id="rId5" xr:uid="{CFB35B9F-9E23-4836-B8C0-ED70555DCE56}"/>
+    <hyperlink ref="H24" r:id="rId6" xr:uid="{FCFF08A9-1054-4AEB-B057-D44DF4E1561F}"/>
+    <hyperlink ref="H32" r:id="rId7" xr:uid="{E3C6AD26-DC75-41E8-A4E7-46A95156D267}"/>
+    <hyperlink ref="H35" r:id="rId8" xr:uid="{B6ACBCD9-E391-445D-BEBA-1C2329286E19}"/>
+    <hyperlink ref="H30" r:id="rId9" xr:uid="{54B55CDE-D9BD-4A1D-A5F0-F1F487A5DC3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bootcampKatalon\session 1\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F5157-BFB9-407A-9FE7-6609C498A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C149FC-1A44-43A0-A455-20917BC8FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenario!$A$1:$Q$68</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -564,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -600,67 +603,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -700,12 +642,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,16 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,31 +693,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,87 +717,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,12 +1219,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,1622 +1249,1616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="36" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="49" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="10" t="s">
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="50" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="49" t="s">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="10" t="s">
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="10" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="36" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="49" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="10" t="s">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="10" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="36" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="49" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="10" t="s">
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="10" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="28"/>
+      <c r="M16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="49" t="s">
+      <c r="N16" s="34"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="10" t="s">
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="10" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="10" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="36" t="s">
+      <c r="L20" s="28"/>
+      <c r="M20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="49" t="s">
+      <c r="N20" s="34"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="10" t="s">
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="10" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="10" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="13"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="36" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36" t="s">
+      <c r="L24" s="30"/>
+      <c r="M24" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="49" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10" t="s">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10" t="s">
+      <c r="J25" s="17"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="13"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="50" t="s">
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="13"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="27" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="27" t="s">
+      <c r="L28" s="55"/>
+      <c r="M28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="51" t="s">
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="10" t="s">
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="10"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="27" t="s">
+      <c r="J30" s="7"/>
+      <c r="K30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="27" t="s">
+      <c r="L30" s="55"/>
+      <c r="M30" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="51" t="s">
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="10" t="s">
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="21"/>
+      <c r="I31" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="10"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="36" t="s">
+      <c r="J32" s="7"/>
+      <c r="K32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36" t="s">
+      <c r="L32" s="30"/>
+      <c r="M32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="49" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="10" t="s">
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="21" t="s">
+      <c r="J33" s="17"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="26" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="J34" s="15"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="36" t="s">
+      <c r="J35" s="7"/>
+      <c r="K35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36" t="s">
+      <c r="L35" s="30"/>
+      <c r="M35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="49" t="s">
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-    </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="10" t="s">
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-    </row>
-    <row r="37" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="10" t="s">
+      <c r="J36" s="17"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-    </row>
-    <row r="38" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="46" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="36" t="s">
+      <c r="J38" s="7"/>
+      <c r="K38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36" t="s">
+      <c r="L38" s="30"/>
+      <c r="M38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="49" t="s">
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" ht="240" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="45" t="s">
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="46" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="45" t="s">
+      <c r="J39" s="7"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="45" t="s">
+      <c r="J40" s="7"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="7"/>
+      <c r="I41" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="45" t="s">
+      <c r="J41" s="7"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="45" t="s">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="7"/>
+      <c r="I43" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:19" ht="240" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="45" t="s">
+      <c r="J43" s="7"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="46" t="s">
+      <c r="H44" s="7"/>
+      <c r="I44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="J44" s="7"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="46" t="s">
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="36" t="s">
+      <c r="J45" s="10"/>
+      <c r="K45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="36" t="s">
+      <c r="L45" s="28"/>
+      <c r="M45" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="49" t="s">
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" spans="1:19" ht="240" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="45" t="s">
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="46" t="s">
+      <c r="H46" s="7"/>
+      <c r="I46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="45" t="s">
+      <c r="J46" s="10"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="11" t="s">
+      <c r="H47" s="7"/>
+      <c r="I47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="45" t="s">
+      <c r="J47" s="10"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="7">
         <v>84</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="J48" s="10"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="13"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="13"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="50" t="s">
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="45" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="36" t="s">
+      <c r="J50" s="10"/>
+      <c r="K50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="40"/>
-      <c r="M50" s="36" t="s">
+      <c r="L50" s="28"/>
+      <c r="M50" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="49" t="s">
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="45" t="s">
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="J51" s="10"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="7"/>
+      <c r="I52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P52" s="53" t="s">
+      <c r="P52" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -2912,13 +2867,13 @@
       <c r="E53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="22" t="s">
         <v>132</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -2927,486 +2882,661 @@
       <c r="M53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P53" s="53" t="s">
+      <c r="P53" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+    <row r="54" spans="1:17" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="G54" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="46" t="s">
+      <c r="H54" s="7"/>
+      <c r="I54" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="36" t="s">
+      <c r="J54" s="10"/>
+      <c r="K54" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="40"/>
-      <c r="M54" s="36" t="s">
+      <c r="L54" s="28"/>
+      <c r="M54" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="49" t="s">
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="45" t="s">
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="7">
         <v>1682471907</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="J55" s="10"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="46" t="s">
+      <c r="H56" s="7"/>
+      <c r="I56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="36" t="s">
+      <c r="J56" s="10"/>
+      <c r="K56" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="36" t="s">
+      <c r="L56" s="10"/>
+      <c r="M56" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="49" t="s">
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="45" t="s">
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="45" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="45" t="s">
+      <c r="J57" s="10"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="J58" s="10"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="46" t="s">
+      <c r="H59" s="7"/>
+      <c r="I59" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="36" t="s">
+      <c r="J59" s="10"/>
+      <c r="K59" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="40"/>
-      <c r="M59" s="36" t="s">
+      <c r="L59" s="28"/>
+      <c r="M59" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="49" t="s">
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="45" t="s">
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="45" t="s">
+      <c r="J60" s="10"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="J61" s="10"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="46" t="s">
+      <c r="H62" s="7"/>
+      <c r="I62" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="13"/>
-      <c r="K62" s="36" t="s">
+      <c r="J62" s="10"/>
+      <c r="K62" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="40"/>
-      <c r="M62" s="36" t="s">
+      <c r="L62" s="28"/>
+      <c r="M62" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="49" t="s">
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="45" t="s">
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="46" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="J63" s="10"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="37" t="s">
+      <c r="F64" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G64" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="46" t="s">
+      <c r="H64" s="7"/>
+      <c r="I64" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="36" t="s">
+      <c r="J64" s="10"/>
+      <c r="K64" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="40"/>
-      <c r="M64" s="36" t="s">
+      <c r="L64" s="28"/>
+      <c r="M64" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="49" t="s">
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" spans="1:17" ht="240" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="45" t="s">
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="46" t="s">
+      <c r="H65" s="7"/>
+      <c r="I65" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="45" t="s">
+      <c r="J65" s="10"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="45" t="s">
+      <c r="H66" s="10"/>
+      <c r="I66" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="J66" s="10"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="36" t="s">
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="40"/>
-      <c r="M67" s="36" t="s">
+      <c r="L67" s="28"/>
+      <c r="M67" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="36" t="s">
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="45" t="s">
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="45" t="s">
+      <c r="H68" s="7"/>
+      <c r="I68" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="13"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q68" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Login"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="231">
-    <mergeCell ref="N64:N66"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="N38:N44"/>
+    <mergeCell ref="O38:O44"/>
+    <mergeCell ref="P38:P44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="P56:P58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="A45:A48"/>
@@ -3431,38 +3561,21 @@
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="M50:M51"/>
     <mergeCell ref="N50:N51"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="P56:P58"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P67:P68"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="C64:C66"/>
@@ -3472,160 +3585,9 @@
     <mergeCell ref="K64:K66"/>
     <mergeCell ref="L64:L66"/>
     <mergeCell ref="M64:M66"/>
-    <mergeCell ref="M38:M44"/>
-    <mergeCell ref="N38:N44"/>
-    <mergeCell ref="O38:O44"/>
-    <mergeCell ref="P38:P44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="K38:K44"/>
-    <mergeCell ref="L38:L44"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E2 E6:E7 E10 E13 E16 E20 E24 E27:E28 E32 E35 E38 E56 E59 E62 E64 E45 E49:E50 E52:E54 E67">
+  <conditionalFormatting sqref="E2 E6:E7 E10 E13 E16 E20 E24 E27:E28 E32 E35 E38 E45 E49:E50 E52:E54 E56 E59 E62 E64 E67">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"NEGATIVE"</formula>
     </cfRule>
@@ -3641,7 +3603,7 @@
       <formula>"POSITIVE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 K6:K7 K10 K13 K16 K20 K24 K27:K28 K32 K35 K38 K56 K59 K62 K64 K45 K49:K50 K52:K54 K67">
+  <conditionalFormatting sqref="K2 K6:K7 K10 K13 K16 K20 K24 K27:K28 K32 K35 K38 K45 K49:K50 K52:K54 K56 K59 K62 K64 K67">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
